--- a/Study 3/Shocks/GCAM/NDC_LTT - 2025.xlsx
+++ b/Study 3/Shocks/GCAM/NDC_LTT - 2025.xlsx
@@ -11402,7 +11402,7 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0.008703423457274106</v>
+        <v>0.008703423457274104</v>
       </c>
     </row>
     <row r="3">
@@ -11522,7 +11522,7 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>0.03420940183976837</v>
+        <v>0.03420940183976836</v>
       </c>
     </row>
     <row r="6">
@@ -11562,7 +11562,7 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>0.537501458722916</v>
+        <v>0.5375014587229159</v>
       </c>
     </row>
     <row r="7">
@@ -11682,7 +11682,7 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>0.08374236237647797</v>
+        <v>0.08374236237647796</v>
       </c>
     </row>
     <row r="10">
@@ -11722,7 +11722,7 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>0.06465942443724502</v>
+        <v>0.06465942443724501</v>
       </c>
     </row>
     <row r="11">
@@ -11882,7 +11882,7 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>0.002693148976844955</v>
+        <v>0.002693148976844954</v>
       </c>
     </row>
     <row r="15">
@@ -12002,7 +12002,7 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>0.03676873356721928</v>
+        <v>0.03676873356721927</v>
       </c>
     </row>
     <row r="18">
@@ -12162,7 +12162,7 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>0.06456936880209009</v>
+        <v>0.06456936880209008</v>
       </c>
     </row>
     <row r="22">
@@ -12202,7 +12202,7 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>0.08828605209161157</v>
+        <v>0.08828605209161154</v>
       </c>
     </row>
     <row r="23">
@@ -12322,7 +12322,7 @@
         </is>
       </c>
       <c r="H25" t="n">
-        <v>0.1544751709278585</v>
+        <v>0.1544751709278584</v>
       </c>
     </row>
     <row r="26">
@@ -12362,7 +12362,7 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>0.00029313811475995</v>
+        <v>0.0002931381147599499</v>
       </c>
     </row>
     <row r="27">
@@ -12482,7 +12482,7 @@
         </is>
       </c>
       <c r="H29" t="n">
-        <v>0.00963680806537601</v>
+        <v>0.009636808065376009</v>
       </c>
     </row>
     <row r="30">
@@ -12522,7 +12522,7 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>8.360871701311346e-06</v>
+        <v>8.360871701311344e-06</v>
       </c>
     </row>
     <row r="31">
@@ -12642,7 +12642,7 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>0.0009992162651607005</v>
+        <v>0.0009992162651607003</v>
       </c>
     </row>
     <row r="34">
@@ -12682,7 +12682,7 @@
         </is>
       </c>
       <c r="H34" t="n">
-        <v>0.06639169305463177</v>
+        <v>0.06639169305463176</v>
       </c>
     </row>
     <row r="35">
@@ -12842,7 +12842,7 @@
         </is>
       </c>
       <c r="H38" t="n">
-        <v>0.06221100953962769</v>
+        <v>0.06221100953962768</v>
       </c>
     </row>
     <row r="39">
@@ -12962,7 +12962,7 @@
         </is>
       </c>
       <c r="H41" t="n">
-        <v>0.2160465493038061</v>
+        <v>0.216046549303806</v>
       </c>
     </row>
   </sheetData>
